--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,20 +753,20 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -769,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,11 +820,17 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,11 +867,17 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -882,15 +909,15 @@
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1097,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="F17" s="3">
         <v>1300</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1155,46 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
         <v>-1300</v>
       </c>
       <c r="G18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,17 +1221,17 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1186,8 +1253,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,40 +1268,46 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1268,49 +1347,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,17 +1785,17 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1678,49 +1817,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1893,14 +2066,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1922,8 +2095,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1977,24 +2162,24 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,79 +2236,91 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2127,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2200,17 +2415,23 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2659,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2455,8 +2706,14 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2516,22 +2777,28 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2539,40 +2806,46 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2580,20 +2853,20 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -2612,60 +2885,72 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,16 +3327,22 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-36400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-35200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-34200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-25400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-24900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-24500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-24200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-23900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1300</v>
+        <v>-1700</v>
       </c>
       <c r="E76" s="3">
         <v>-1400</v>
       </c>
       <c r="F76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,31 +4103,37 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -3709,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -3717,8 +4150,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,31 +4173,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3766,8 +4207,8 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,31 +4310,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3889,8 +4348,8 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
@@ -3898,8 +4357,14 @@
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,22 +4579,22 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -4112,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4120,8 +4611,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4658,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4170,17 +4673,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4200,6 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,17 +763,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -782,13 +786,16 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -826,11 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,11 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -915,12 +929,12 @@
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,20 +1255,20 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1305,49 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,11 +1355,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,20 +1855,20 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2072,11 +2159,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2168,21 +2261,21 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,88 +2338,94 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2421,17 +2529,20 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2783,27 +2914,30 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2812,16 +2946,16 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -2830,22 +2964,25 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,23 +2990,23 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -2891,55 +3028,61 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
       </c>
       <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
       </c>
       <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,13 +3090,13 @@
         <v>1000</v>
       </c>
       <c r="E61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="3">
         <v>900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,46 +3340,49 @@
         <v>1500</v>
       </c>
       <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
       </c>
       <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
       <c r="O66" s="3">
+        <v>700</v>
+      </c>
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3345,7 +3513,7 @@
         <v>1600</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-600</v>
       </c>
       <c r="O76" s="3">
         <v>-600</v>
       </c>
       <c r="P76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4121,32 +4338,32 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4189,14 +4410,14 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4204,14 +4425,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4330,14 +4560,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4345,14 +4575,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4585,29 +4831,29 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4679,14 +4931,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,91 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -766,17 +770,17 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -789,16 +793,19 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
@@ -836,19 +843,22 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
@@ -886,11 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,12 +946,12 @@
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1026,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-2000</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,32 +1279,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1296,73 +1330,79 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-2100</v>
       </c>
       <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,32 +1913,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1896,58 +1966,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,13 +2227,14 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2162,11 +2249,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,13 +2331,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2264,21 +2357,21 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,94 +2437,100 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2532,17 +2640,20 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,31 +2808,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2917,22 +3048,25 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,7 +3074,7 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2949,16 +3083,16 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -2967,49 +3101,52 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3031,58 +3168,64 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>700</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
       </c>
       <c r="L60" s="3">
+        <v>700</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
       <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,13 +3236,13 @@
         <v>1000</v>
       </c>
       <c r="F61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G61" s="3">
         <v>900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
         <v>1500</v>
       </c>
       <c r="F66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
       </c>
       <c r="L66" s="3">
+        <v>700</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
       <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3516,7 +3684,7 @@
         <v>1600</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-42200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-24200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-600</v>
       </c>
       <c r="P76" s="3">
         <v>-600</v>
       </c>
       <c r="Q76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4341,32 +4558,32 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4413,14 +4634,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4428,14 +4649,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4563,14 +4793,14 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4578,14 +4808,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4834,29 +5080,29 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4934,14 +5186,14 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -773,20 +780,20 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -796,22 +803,28 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
@@ -846,25 +859,31 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
@@ -899,11 +918,17 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,15 +976,15 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1062,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>600</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>300</v>
+      </c>
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2500</v>
       </c>
       <c r="G17" s="3">
         <v>1600</v>
       </c>
       <c r="H17" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="I17" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="J17" s="3">
         <v>1300</v>
       </c>
       <c r="K17" s="3">
+        <v>900</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2500</v>
       </c>
       <c r="G18" s="3">
         <v>-1600</v>
       </c>
       <c r="H18" s="3">
-        <v>-1300</v>
+        <v>-2500</v>
       </c>
       <c r="I18" s="3">
-        <v>-900</v>
+        <v>-1600</v>
       </c>
       <c r="J18" s="3">
         <v>-1300</v>
       </c>
       <c r="K18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,38 +1345,40 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1333,82 +1400,94 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1439,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,38 +2049,44 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1969,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2252,14 +2425,14 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2346,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2360,24 +2545,24 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,103 +2631,115 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>1000</v>
       </c>
       <c r="F46" s="3">
+        <v>800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2643,17 +2858,23 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,20 +3044,26 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2837,11 +3076,11 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,50 +3162,56 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -2970,8 +3221,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,16 +3271,18 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3051,108 +3312,120 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3171,66 +3444,78 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
       </c>
       <c r="G60" s="3">
+        <v>500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
@@ -3239,17 +3524,17 @@
         <v>1000</v>
       </c>
       <c r="G61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3798,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3498,52 +3813,58 @@
         <v>1700</v>
       </c>
       <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,16 +3998,22 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="E70" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="F70" s="3">
         <v>1600</v>
@@ -3687,10 +4022,10 @@
         <v>1600</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-44400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-42200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-40700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-38200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-36400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-32600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-25400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-24900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-24500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-23900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-23700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1300</v>
       </c>
       <c r="I76" s="3">
         <v>-1400</v>
       </c>
       <c r="J76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4552,7 +4985,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4561,25 +4994,25 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4588,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4596,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,13 +5056,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4637,23 +5078,23 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4661,8 +5102,8 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4796,23 +5255,23 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4820,8 +5279,8 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
@@ -4829,8 +5288,14 @@
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,16 +5547,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>100</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -5083,22 +5574,22 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -5107,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5115,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,13 +5665,19 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5189,17 +5692,17 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -786,17 +790,17 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -809,25 +813,28 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -865,16 +872,19 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -885,8 +895,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -924,11 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -982,12 +996,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>2100</v>
       </c>
       <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-1900</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,41 +1380,42 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1406,72 +1440,78 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-1900</v>
       </c>
       <c r="E21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1480,17 +1520,17 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,41 +2122,44 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2410,14 +2497,14 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2431,11 +2518,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,14 +2621,14 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2551,21 +2644,21 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,112 +2733,118 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2864,17 +2972,20 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3061,12 +3181,12 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3082,8 +3202,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1000</v>
       </c>
       <c r="F54" s="3">
         <v>1000</v>
       </c>
       <c r="G54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,19 +3403,20 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3318,30 +3449,33 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3350,7 +3484,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3359,16 +3493,16 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -3377,58 +3511,61 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
       </c>
       <c r="S58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -3450,75 +3587,81 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
       </c>
       <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
       </c>
       <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>700</v>
       </c>
       <c r="R60" s="3">
         <v>700</v>
       </c>
       <c r="S60" s="3">
+        <v>700</v>
+      </c>
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>1000</v>
@@ -3530,13 +3673,13 @@
         <v>1000</v>
       </c>
       <c r="I61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
         <v>900</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,13 +3959,16 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E66" s="3">
         <v>1700</v>
@@ -3819,52 +3977,55 @@
         <v>1700</v>
       </c>
       <c r="G66" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="H66" s="3">
         <v>1500</v>
       </c>
       <c r="I66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
       <c r="O66" s="3">
+        <v>700</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>700</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
       <c r="S66" s="3">
+        <v>700</v>
+      </c>
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,19 +4169,22 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E70" s="3">
         <v>2200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>2100</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1600</v>
       </c>
       <c r="G70" s="3">
         <v>1600</v>
@@ -4028,7 +4196,7 @@
         <v>1600</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5400</v>
+        <v>-3500</v>
       </c>
       <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-600</v>
       </c>
       <c r="S76" s="3">
         <v>-600</v>
       </c>
       <c r="T76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,10 +5202,10 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -5000,32 +5217,32 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5278,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5084,14 +5305,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5099,14 +5320,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5261,14 +5491,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5276,14 +5506,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,19 +5796,22 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -5580,29 +5826,29 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5623,20 +5872,20 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5671,16 +5920,19 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5698,14 +5950,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,13 +770,13 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -793,17 +797,17 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,16 +835,16 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -875,11 +882,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +908,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -937,11 +947,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -999,12 +1013,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1105,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,44 +1414,45 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1443,70 +1477,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,17 +1563,17 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,44 +2192,47 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2257,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,26 +2574,27 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2521,11 +2608,11 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2624,14 +2717,14 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2647,21 +2740,21 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,118 +2832,124 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2975,17 +3083,20 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3184,12 +3304,12 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3205,8 +3325,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1000</v>
       </c>
       <c r="G54" s="3">
         <v>1000</v>
       </c>
       <c r="H54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3413,13 +3544,13 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3452,22 +3583,25 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -3487,7 +3621,7 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3496,16 +3630,16 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>500</v>
@@ -3514,61 +3648,64 @@
         <v>500</v>
       </c>
       <c r="R58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
       <c r="T58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
       <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -3590,81 +3727,87 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
       <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>700</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
       </c>
       <c r="T60" s="3">
+        <v>700</v>
+      </c>
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
@@ -3676,13 +3819,13 @@
         <v>1000</v>
       </c>
       <c r="J61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K61" s="3">
         <v>900</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,16 +4117,19 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1700</v>
       </c>
       <c r="F66" s="3">
         <v>1700</v>
@@ -3980,52 +4138,55 @@
         <v>1700</v>
       </c>
       <c r="H66" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="I66" s="3">
         <v>1500</v>
       </c>
       <c r="J66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
       <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>700</v>
       </c>
       <c r="S66" s="3">
         <v>700</v>
       </c>
       <c r="T66" s="3">
+        <v>700</v>
+      </c>
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,22 +4337,25 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E70" s="3">
         <v>3400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>2200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>2100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1600</v>
       </c>
       <c r="H70" s="3">
         <v>1600</v>
@@ -4199,7 +4367,7 @@
         <v>1600</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-42200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-34200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-24200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-600</v>
       </c>
       <c r="T76" s="3">
         <v>-600</v>
       </c>
       <c r="U76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5205,10 +5422,10 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5220,32 +5437,32 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,19 +5499,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5308,14 +5529,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5323,14 +5544,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5494,14 +5724,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5509,14 +5739,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>5</v>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,22 +6042,25 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5829,29 +6075,29 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5872,8 +6121,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
@@ -5887,8 +6136,8 @@
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5923,20 +6172,23 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5953,14 +6205,14 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,112 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,23 +781,23 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -800,31 +811,40 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,25 +855,25 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
@@ -885,11 +905,20 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,14 +940,14 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
@@ -950,11 +979,20 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +1016,11 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1016,18 +1057,18 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1043,8 +1084,17 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,73 +1158,91 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G14" s="3">
         <v>7400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
-      </c>
-      <c r="G14" s="3">
-        <v>600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>400</v>
       </c>
       <c r="J14" s="3">
         <v>600</v>
       </c>
       <c r="K14" s="3">
+        <v>500</v>
+      </c>
+      <c r="L14" s="3">
+        <v>400</v>
+      </c>
+      <c r="M14" s="3">
+        <v>600</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>1900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1306,17 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1337,159 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G17" s="3">
         <v>8300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1500</v>
       </c>
       <c r="H17" s="3">
         <v>2100</v>
       </c>
       <c r="I17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>4800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,52 +1513,55 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-300</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1480,81 +1581,99 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-7900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1566,10 +1685,10 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1581,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1610,73 +1729,91 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1877,17 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1951,165 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2173,17 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2247,17 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2321,17 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,52 +2395,61 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>300</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2260,73 +2469,91 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2617,170 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2804,11 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,34 +2832,37 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2611,17 +2871,17 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2640,8 +2900,17 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,34 +2974,43 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2743,8 +3021,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2752,49 +3030,58 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2835,64 +3122,73 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1200</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
+      <c r="R45" s="3">
+        <v>400</v>
+      </c>
+      <c r="S45" s="3">
+        <v>1200</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
@@ -2900,73 +3196,91 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3344,17 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3086,17 +3409,26 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3492,17 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3566,17 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3640,17 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3307,18 +3666,18 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3328,14 +3687,14 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3355,8 +3714,17 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3788,91 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3896,11 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,31 +3924,34 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3586,22 +3978,31 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3612,109 +4013,118 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
@@ -3730,112 +4140,130 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
       </c>
       <c r="T60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
       </c>
       <c r="V60" s="3">
+        <v>700</v>
+      </c>
+      <c r="W60" s="3">
+        <v>700</v>
+      </c>
+      <c r="X60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
       </c>
       <c r="H61" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>1000</v>
       </c>
       <c r="K61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3860,8 +4288,17 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,17 +4311,17 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3925,8 +4362,17 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4436,17 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4510,17 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4584,17 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4129,64 +4602,73 @@
         <v>1400</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>1500</v>
       </c>
       <c r="N66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>700</v>
       </c>
       <c r="T66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
       </c>
       <c r="V66" s="3">
+        <v>700</v>
+      </c>
+      <c r="W66" s="3">
+        <v>700</v>
+      </c>
+      <c r="X66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4692,11 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4760,17 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,43 +4834,52 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G70" s="3">
         <v>3800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="H70" s="3">
         <v>3400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="I70" s="3">
         <v>2200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="J70" s="3">
         <v>2100</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1600</v>
       </c>
       <c r="K70" s="3">
         <v>1600</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4405,8 +4908,17 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4982,91 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-58800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-50800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-48800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-45900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-44400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-42200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-40700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-38200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-36400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-35200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-34200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-32600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-25400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-24900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-24500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-24200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-23900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-23700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +5130,17 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5204,17 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5278,91 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5426,170 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5613,11 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5681,17 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5755,17 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5829,17 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5903,17 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5977,17 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,22 +6051,31 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5434,13 +6084,13 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5449,7 +6099,7 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -5464,19 +6114,28 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,28 +6159,31 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5532,41 +6194,50 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6301,17 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +6375,17 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5727,41 +6416,50 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6483,11 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6551,17 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6625,17 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6699,17 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,31 +6773,40 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>800</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -6078,19 +6815,19 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6099,19 +6836,28 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6124,14 +6870,14 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -6139,14 +6885,14 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6175,29 +6921,38 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6208,20 +6963,20 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6238,6 +6993,15 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,10 +785,10 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
@@ -793,13 +797,13 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -820,17 +824,17 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,10 +862,10 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -867,16 +874,16 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
@@ -914,11 +921,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +959,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
@@ -988,11 +998,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,12 +1080,12 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,82 +1184,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>16500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1531,41 +1565,41 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1590,82 +1624,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-300</v>
       </c>
       <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1694,17 +1734,17 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2419,41 +2489,41 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2478,82 +2548,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2844,29 +2931,29 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2880,11 +2967,11 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2909,8 +2996,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2998,7 +3091,7 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3007,14 +3100,14 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -3030,21 +3123,21 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3069,11 +3165,11 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3083,8 +3179,8 @@
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3131,142 +3227,148 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3458,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3418,17 +3526,20 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,38 +3766,41 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3696,8 +3816,8 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3920,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3806,59 +3932,59 @@
         <v>2800</v>
       </c>
       <c r="E54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>1000</v>
       </c>
       <c r="L54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,34 +4057,35 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3987,22 +4118,25 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4022,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -4034,7 +4168,7 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -4043,16 +4177,16 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>500</v>
       </c>
       <c r="T58" s="3">
         <v>500</v>
@@ -4061,27 +4195,30 @@
         <v>500</v>
       </c>
       <c r="V58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W58" s="3">
         <v>400</v>
       </c>
       <c r="X58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
       </c>
       <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4090,44 +4227,44 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
@@ -4149,13 +4286,16 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
@@ -4164,90 +4304,93 @@
         <v>600</v>
       </c>
       <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>700</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
       </c>
       <c r="T60" s="3">
+        <v>700</v>
+      </c>
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>700</v>
       </c>
       <c r="W60" s="3">
         <v>700</v>
       </c>
       <c r="X60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>1000</v>
@@ -4259,13 +4402,13 @@
         <v>1000</v>
       </c>
       <c r="N61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O61" s="3">
         <v>900</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4311,8 +4457,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
@@ -4323,8 +4469,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,28 +4748,31 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1700</v>
       </c>
       <c r="J66" s="3">
         <v>1700</v>
@@ -4623,52 +4781,55 @@
         <v>1700</v>
       </c>
       <c r="L66" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M66" s="3">
         <v>1500</v>
       </c>
       <c r="N66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
-      </c>
-      <c r="R66" s="3">
-        <v>700</v>
       </c>
       <c r="S66" s="3">
         <v>700</v>
       </c>
       <c r="T66" s="3">
+        <v>700</v>
+      </c>
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
-      </c>
-      <c r="V66" s="3">
-        <v>700</v>
       </c>
       <c r="W66" s="3">
         <v>700</v>
       </c>
       <c r="X66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,34 +5008,37 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E70" s="3">
         <v>4800</v>
-      </c>
-      <c r="E70" s="3">
-        <v>4100</v>
       </c>
       <c r="F70" s="3">
         <v>4100</v>
       </c>
       <c r="G70" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H70" s="3">
         <v>3800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>2200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1600</v>
       </c>
       <c r="L70" s="3">
         <v>1600</v>
@@ -4882,7 +5050,7 @@
         <v>1600</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-58800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-40700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-34200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-24900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-24500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-24200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-23900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-23700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-600</v>
       </c>
       <c r="X76" s="3">
         <v>-600</v>
       </c>
       <c r="Y76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,22 +6274,25 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -6084,10 +6301,10 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6099,32 +6316,32 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6351,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6173,20 +6394,20 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6203,14 +6424,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6218,14 +6439,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6425,14 +6655,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6440,14 +6670,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>5</v>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,13 +7025,16 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6797,19 +7043,19 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -6824,29 +7070,29 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -6856,8 +7102,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6879,8 +7128,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -6894,8 +7143,8 @@
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6930,32 +7179,35 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-300</v>
       </c>
       <c r="F102" s="3">
         <v>-300</v>
       </c>
       <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6972,14 +7224,14 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,10 +791,10 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -800,13 +803,13 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -827,17 +830,17 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
@@ -850,13 +853,16 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -865,10 +871,10 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -877,16 +883,16 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
@@ -924,16 +930,19 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -962,8 +971,8 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
@@ -1001,11 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,12 +1096,12 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,13 +1582,14 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1568,41 +1601,41 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1627,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-16300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-300</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
       <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1719,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1737,17 +1776,17 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1781,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,13 +2540,16 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2492,41 +2561,41 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2551,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2934,29 +3020,29 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2970,11 +3056,11 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2999,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,13 +3165,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -3094,7 +3186,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3103,14 +3195,14 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -3126,21 +3218,21 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
@@ -3153,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3168,11 +3263,11 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
@@ -3182,8 +3277,8 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -3230,148 +3325,154 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
+        <v>400</v>
+      </c>
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3384,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3529,17 +3636,20 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3795,15 +3914,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3819,8 +3938,8 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3846,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,71 +4045,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2800</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>2800</v>
       </c>
       <c r="F54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1000</v>
       </c>
       <c r="L54" s="3">
         <v>1000</v>
       </c>
       <c r="M54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
       </c>
       <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
@@ -4000,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,37 +4187,38 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4121,22 +4251,25 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4159,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -4171,7 +4304,7 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4180,16 +4313,16 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>500</v>
@@ -4198,31 +4331,34 @@
         <v>500</v>
       </c>
       <c r="W58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X58" s="3">
         <v>400</v>
       </c>
       <c r="Y58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
       </c>
       <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
@@ -4230,44 +4366,44 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
@@ -4289,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4298,7 +4437,7 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -4307,93 +4446,96 @@
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>700</v>
       </c>
       <c r="T60" s="3">
         <v>700</v>
       </c>
       <c r="U60" s="3">
+        <v>700</v>
+      </c>
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
-      </c>
-      <c r="W60" s="3">
-        <v>700</v>
       </c>
       <c r="X60" s="3">
         <v>700</v>
       </c>
       <c r="Y60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
       </c>
       <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>1000</v>
@@ -4405,13 +4547,13 @@
         <v>1000</v>
       </c>
       <c r="O61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P61" s="3">
         <v>900</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4443,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4460,8 +4605,8 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -4472,8 +4617,8 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4520,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,31 +4905,34 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
       </c>
       <c r="H66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1700</v>
       </c>
       <c r="K66" s="3">
         <v>1700</v>
@@ -4784,52 +4941,55 @@
         <v>1700</v>
       </c>
       <c r="M66" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N66" s="3">
         <v>1500</v>
       </c>
       <c r="O66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>700</v>
       </c>
       <c r="T66" s="3">
         <v>700</v>
       </c>
       <c r="U66" s="3">
+        <v>700</v>
+      </c>
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
-      </c>
-      <c r="W66" s="3">
-        <v>700</v>
       </c>
       <c r="X66" s="3">
         <v>700</v>
       </c>
       <c r="Y66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z66" s="3">
         <v>600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5020,28 +5187,28 @@
         <v>2900</v>
       </c>
       <c r="E70" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F70" s="3">
         <v>4800</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4100</v>
       </c>
       <c r="G70" s="3">
         <v>4100</v>
       </c>
       <c r="H70" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I70" s="3">
         <v>3800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2100</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1600</v>
       </c>
       <c r="M70" s="3">
         <v>1600</v>
@@ -5053,7 +5220,7 @@
         <v>1600</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -5088,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-81000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-58800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-34200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-24900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-24500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-24200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-23900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-23700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-700</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-600</v>
       </c>
       <c r="Y76" s="3">
         <v>-600</v>
       </c>
       <c r="Z76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5892,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,25 +6490,28 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -6304,10 +6520,10 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -6319,32 +6535,32 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -6354,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,19 +6602,20 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6403,14 +6623,14 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6427,14 +6647,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6442,14 +6662,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
@@ -6460,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6658,14 +6887,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6673,14 +6902,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>5</v>
@@ -6691,8 +6920,11 @@
       <c r="AA94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,17 +7270,20 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -7046,19 +7291,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -7073,29 +7318,29 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7105,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7131,8 +7379,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
@@ -7146,8 +7394,8 @@
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -7182,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7191,26 +7442,26 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-300</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>
       </c>
       <c r="H102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7227,14 +7478,14 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TWOH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>TWOH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,127 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,29 +802,29 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -833,20 +841,20 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
@@ -856,49 +864,55 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
@@ -933,23 +947,29 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -974,11 +994,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
@@ -1013,11 +1033,17 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1099,15 +1127,15 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1240,100 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>7400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
-      </c>
-      <c r="P14" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>300</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>300</v>
+      </c>
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1445,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2500</v>
       </c>
       <c r="P17" s="3">
         <v>1600</v>
       </c>
       <c r="Q17" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="R17" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="S17" s="3">
         <v>1300</v>
       </c>
       <c r="T17" s="3">
+        <v>900</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>100</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-16300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2500</v>
       </c>
       <c r="P18" s="3">
         <v>-1600</v>
       </c>
       <c r="Q18" s="3">
-        <v>-1300</v>
+        <v>-2500</v>
       </c>
       <c r="R18" s="3">
-        <v>-900</v>
+        <v>-1600</v>
       </c>
       <c r="S18" s="3">
         <v>-1300</v>
       </c>
       <c r="T18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-4700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
       </c>
       <c r="AB18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,20 +1649,22 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1604,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1619,29 +1687,29 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1663,88 +1731,100 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-16300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-4700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1761,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1779,20 +1859,20 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1823,88 +1903,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-16300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2075,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2161,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-16300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-4700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-14800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-4700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,20 +2677,26 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2564,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2579,29 +2719,29 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2763,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-14800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-4700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2935,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-14800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-4700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3180,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3023,22 +3197,22 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -3047,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3059,14 +3233,14 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3262,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3348,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,10 +3363,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -3189,16 +3375,16 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -3207,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3221,24 +3407,24 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
@@ -3248,13 +3434,19 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -3266,25 +3458,25 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3328,88 +3520,100 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,68 +3621,68 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2000</v>
       </c>
       <c r="J46" s="3">
         <v>1600</v>
       </c>
       <c r="K46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M46" s="3">
         <v>700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>1000</v>
       </c>
       <c r="O46" s="3">
+        <v>800</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
@@ -3488,8 +3692,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3778,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3639,17 +3855,23 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3950,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4122,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3917,18 +4157,18 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3941,11 +4181,11 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3968,8 +4208,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4294,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,68 +4309,68 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2000</v>
       </c>
       <c r="J54" s="3">
         <v>1600</v>
       </c>
       <c r="K54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
       <c r="Z54" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4380,14 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,43 +4448,45 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -4254,30 +4516,36 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4295,121 +4563,127 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>500</v>
-      </c>
-      <c r="V58" s="3">
-        <v>500</v>
       </c>
       <c r="W58" s="3">
         <v>500</v>
       </c>
       <c r="X58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>500</v>
+      </c>
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
@@ -4428,120 +4702,132 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1000</v>
-      </c>
       <c r="M61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>1000</v>
@@ -4550,17 +4836,17 @@
         <v>1000</v>
       </c>
       <c r="P61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4874,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4608,11 +4900,11 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -4620,11 +4912,11 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4668,8 +4960,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5218,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1700</v>
       </c>
       <c r="M66" s="3">
         <v>1700</v>
       </c>
       <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,43 +5508,49 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="E70" s="3">
         <v>2900</v>
       </c>
       <c r="F70" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H70" s="3">
         <v>4800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>4100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>4100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>3800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>2200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>2100</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1600</v>
       </c>
       <c r="O70" s="3">
         <v>1600</v>
@@ -5223,10 +5559,10 @@
         <v>1600</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-83900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-81000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-79900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-63600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-62200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-58800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-50800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-48800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-45900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-44400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-42200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-40700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-36400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-35200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-34200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-32600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-30200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-25400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-24900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-24500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-24200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-23900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-23700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-23600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6024,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5667,79 +6039,85 @@
         <v>-4600</v>
       </c>
       <c r="E76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3500</v>
       </c>
       <c r="K76" s="3">
         <v>-3200</v>
       </c>
       <c r="L76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1300</v>
       </c>
       <c r="R76" s="3">
         <v>-1400</v>
       </c>
       <c r="S76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6196,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-14800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-4700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6409,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,43 +6921,49 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -6538,25 +6972,25 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6565,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -6573,8 +7007,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7043,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6629,14 +7071,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6650,23 +7092,23 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6674,8 +7116,8 @@
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>5</v>
@@ -6683,8 +7125,14 @@
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7297,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6890,23 +7350,23 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6914,8 +7374,8 @@
       <c r="Y94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>5</v>
@@ -6923,8 +7383,14 @@
       <c r="AB94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,43 +7759,49 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -7321,22 +7813,22 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -7345,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7353,8 +7845,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7382,11 +7880,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>5</v>
@@ -7397,11 +7895,11 @@
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -7433,8 +7931,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7445,29 +7949,29 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -7481,17 +7985,17 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +8015,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>
